--- a/app/seeds/04_friend.xlsx
+++ b/app/seeds/04_friend.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="1480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="フレンドシップ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -179,15 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000001</t>
-  </si>
-  <si>
-    <t>fontana:1000002</t>
-  </si>
-  <si>
-    <t>fontana:1000003</t>
-  </si>
-  <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -605,24 +596,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fontana:1000003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fontana:1000004</t>
-  </si>
-  <si>
-    <t>fontana:1000005</t>
-  </si>
-  <si>
-    <t>fontana:1000006</t>
-  </si>
-  <si>
-    <t>fontana:1000007</t>
-  </si>
-  <si>
-    <t>fontana:1000008</t>
-    <phoneticPr fontId="1"/>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>1000002</t>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>1000004</t>
+  </si>
+  <si>
+    <t>1000005</t>
+  </si>
+  <si>
+    <t>1000006</t>
+  </si>
+  <si>
+    <t>1000007</t>
+  </si>
+  <si>
+    <t>1000008</t>
   </si>
 </sst>
 </file>
@@ -795,7 +790,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -817,6 +812,9 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1176,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1382,11 +1380,11 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
+      <c r="A19" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1400,11 +1398,11 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>122</v>
+      <c r="A20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="8">
         <v>2</v>
@@ -1418,11 +1416,11 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>123</v>
+      <c r="A21" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
@@ -1436,11 +1434,11 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>124</v>
+      <c r="A22" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="C22" s="8">
         <v>4</v>
@@ -1454,11 +1452,11 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>125</v>
+      <c r="A23" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
@@ -1472,11 +1470,11 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>126</v>
+      <c r="A24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="C24" s="8">
         <v>6</v>
@@ -1490,11 +1488,11 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>127</v>
+      <c r="A25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C25" s="8">
         <v>7</v>
@@ -1508,11 +1506,11 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>35</v>
+      <c r="A26" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
@@ -1526,11 +1524,11 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>33</v>
+      <c r="A27" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C27" s="8">
         <v>3</v>
@@ -1566,7 +1564,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1581,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1589,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1597,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1605,12 +1603,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
     </row>
@@ -1621,7 +1619,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -1636,12 +1634,12 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1657,7 +1655,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1673,7 +1671,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -1683,15 +1681,15 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -1699,28 +1697,28 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1733,7 +1731,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1742,35 +1740,35 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
+      <c r="A20" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1786,11 +1784,11 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
+      <c r="A21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -1806,11 +1804,11 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>33</v>
+      <c r="A22" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -1826,11 +1824,11 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
+      <c r="A23" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1846,11 +1844,11 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
+      <c r="A24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -1866,11 +1864,11 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
+      <c r="A25" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
@@ -1921,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1929,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1937,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1945,15 +1943,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1963,7 +1961,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -1980,7 +1978,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -1990,35 +1988,35 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2026,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2034,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2042,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2050,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2068,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2084,7 +2082,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2092,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2100,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2108,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2118,7 +2116,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -2133,15 +2131,15 @@
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -2151,7 +2149,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2160,7 +2158,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>17</v>
@@ -2170,7 +2168,7 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -2179,7 +2177,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -2189,7 +2187,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -2200,7 +2198,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -2210,36 +2208,36 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>33</v>
+      <c r="A15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C15" s="14">
         <v>41121.354166666664</v>
@@ -2249,11 +2247,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>33</v>
+      <c r="A16" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C16" s="14">
         <v>41121.479166666664</v>
@@ -2263,11 +2261,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>35</v>
+      <c r="A17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="C17" s="14">
         <v>41121.75</v>
@@ -2277,11 +2275,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>34</v>
+      <c r="A18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="C18" s="14">
         <v>41122.041666666664</v>
@@ -2326,7 +2324,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2334,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2342,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2350,15 +2348,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2368,7 +2366,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2385,7 +2383,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -2395,35 +2393,35 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2431,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2450,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2464,7 +2462,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2472,15 +2470,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2488,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2513,12 +2511,12 @@
         <v>12</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -2528,7 +2526,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2536,7 +2534,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -2546,13 +2544,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
@@ -2568,7 +2566,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -2578,13 +2576,13 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>23</v>
@@ -2594,38 +2592,38 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20">
+      <c r="A16" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="18">
         <v>41131.8125</v>
@@ -2639,11 +2637,11 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>33</v>
+      <c r="A17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="18">
         <v>41131.8125</v>
@@ -2656,11 +2654,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>35</v>
+      <c r="A18" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C18" s="18">
         <v>41131.833333333336</v>
@@ -2673,11 +2671,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>34</v>
+      <c r="A19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="C19" s="18">
         <v>41131.875</v>
